--- a/ralali_test/Resources/DTF_ralali.xlsx
+++ b/ralali_test/Resources/DTF_ralali.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>apikey</t>
   </si>
@@ -49,9 +49,6 @@
     <t>search one movie</t>
   </si>
   <si>
-    <t>bug found system panic, can't proccessing words with "space"</t>
-  </si>
-  <si>
     <t>lord</t>
   </si>
   <si>
@@ -70,22 +67,25 @@
     <t>search movie without search keyword</t>
   </si>
   <si>
+    <t>bug found, error message should be "please enter search keyword"</t>
+  </si>
+  <si>
+    <t>tegining</t>
+  </si>
+  <si>
+    <t>search movie with unregistered search keyword</t>
+  </si>
+  <si>
+    <t>search movie without query string</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>search movie with only one letter</t>
+  </si>
+  <si>
     <t>bug found, system should add pagination on their query string to limit the result appear</t>
-  </si>
-  <si>
-    <t>tegining</t>
-  </si>
-  <si>
-    <t>search movie with unregistered search keyword</t>
-  </si>
-  <si>
-    <t>search movie without query string</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>search movie with only one letter</t>
   </si>
 </sst>
 </file>
@@ -94,9 +94,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;Rp&quot;* #,##0.00_);_(&quot;Rp&quot;* \(#,##0.00\);_(&quot;Rp&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -108,15 +108,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,55 +129,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,45 +168,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,7 +185,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,55 +272,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,127 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +490,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,15 +525,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,41 +544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -578,153 +558,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="30" spans="1:5">
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1127,35 +1127,33 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -1168,10 +1166,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
@@ -1179,13 +1177,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -1193,10 +1191,10 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -1205,16 +1203,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
